--- a/app/routes/Automate/robot/resume.xlsx
+++ b/app/routes/Automate/robot/resume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,21 +568,21 @@
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
-        <v>4300069234</v>
+        <v>4300069205</v>
       </c>
       <c r="C5" t="n">
         <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recau SUDAMERIS EN LINEA                      </t>
+          <t>Recau RED REDEBAN MULTICOLOR</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>535822</v>
+        <v>-10597856</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
@@ -604,21 +604,21 @@
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="n">
-        <v>4300069234</v>
+        <v>4300069205</v>
       </c>
       <c r="C6" t="n">
         <v>20</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SUDAMERIS EN LINEA                      -EDATEL</t>
+          <t>RED REDEBAN MULTICOLOR-EDATEL</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2155</v>
+        <v>141566</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
@@ -640,21 +640,21 @@
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
-        <v>4300069234</v>
+        <v>4300069205</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SUDAMERIS EN LINEA                      -TIGO</t>
+          <t>RED REDEBAN MULTICOLOR-TIGO</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>191057</v>
+        <v>20516195</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
@@ -796,21 +796,21 @@
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
-        <v>4300069215</v>
+        <v>4300069523</v>
       </c>
       <c r="C14" t="n">
         <v>10</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recau CITIBANK-MISPAGOSALDIA                       </t>
+          <t>Recau NEQUI</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>101782</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
@@ -832,21 +832,21 @@
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="n">
-        <v>4300069215</v>
+        <v>4300069523</v>
       </c>
       <c r="C15" t="n">
         <v>20</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CITIBANK-MISPAGOSALDIA                       -EDATEL</t>
+          <t>NEQUI-EDATEL</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1125</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -868,21 +868,21 @@
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="n">
-        <v>4300069215</v>
+        <v>4300069523</v>
       </c>
       <c r="C16" t="n">
         <v>30</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CITIBANK-MISPAGOSALDIA                       -TIGO</t>
+          <t>NEQUI-TIGO</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>7310</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
@@ -1024,21 +1024,21 @@
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
-        <v>4300069234</v>
+        <v>4300069215</v>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recau SUDAMERIS EN LINEA                      </t>
+          <t xml:space="preserve">Recau CITIBANK-MISPAGOSALDIA                       </t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>535822</v>
+        <v>101782</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
@@ -1060,21 +1060,21 @@
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
-        <v>4300069234</v>
+        <v>4300069215</v>
       </c>
       <c r="C24" t="n">
         <v>20</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SUDAMERIS EN LINEA                      -EDATEL</t>
+          <t>CITIBANK-MISPAGOSALDIA                       -EDATEL</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>2155</v>
+        <v>1125</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
@@ -1096,21 +1096,21 @@
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
-        <v>4300069234</v>
+        <v>4300069215</v>
       </c>
       <c r="C25" t="n">
         <v>30</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SUDAMERIS EN LINEA                      -TIGO</t>
+          <t>CITIBANK-MISPAGOSALDIA                       -TIGO</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>191057</v>
+        <v>7310</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
@@ -1252,21 +1252,21 @@
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
-        <v>4300069215</v>
+        <v>4300069066</v>
       </c>
       <c r="C32" t="n">
         <v>10</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recau CITIBANK-MISPAGOSALDIA                       </t>
+          <t xml:space="preserve">Recau BBVA EN LINEA                           </t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>101782</v>
+        <v>20071707</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1288,21 +1288,21 @@
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
-        <v>4300069215</v>
+        <v>4300069066</v>
       </c>
       <c r="C33" t="n">
         <v>20</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CITIBANK-MISPAGOSALDIA                       -EDATEL</t>
+          <t>BBVA EN LINEA                           -EDATEL</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>1125</v>
+        <v>730011</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
@@ -1324,21 +1324,21 @@
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
-        <v>4300069215</v>
+        <v>4300069066</v>
       </c>
       <c r="C34" t="n">
         <v>30</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CITIBANK-MISPAGOSALDIA                       -TIGO</t>
+          <t>BBVA EN LINEA                           -TIGO</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>7310</v>
+        <v>91146779</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
@@ -1480,21 +1480,21 @@
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>4300069066</v>
+        <v>4300068994</v>
       </c>
       <c r="C41" t="n">
         <v>10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recau BBVA EN LINEA                           </t>
+          <t>Recau BANCOLOMBIA CORRESPONSALES</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>20071707</v>
+        <v>90561060</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
@@ -1516,21 +1516,21 @@
     <row r="42">
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
-        <v>4300069066</v>
+        <v>4300068994</v>
       </c>
       <c r="C42" t="n">
         <v>20</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>BBVA EN LINEA                           -EDATEL</t>
+          <t>BANCOLOMBIA CORRESPONSALES-EDATEL</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>730011</v>
+        <v>15349296</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
@@ -1552,21 +1552,21 @@
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
-        <v>4300069066</v>
+        <v>4300068994</v>
       </c>
       <c r="C43" t="n">
         <v>30</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>BBVA EN LINEA                           -TIGO</t>
+          <t>BANCOLOMBIA CORRESPONSALES-TIGO</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>91146779</v>
+        <v>13000764</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
@@ -1936,21 +1936,21 @@
     <row r="59">
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="n">
-        <v>4300069068</v>
+        <v>4300069204</v>
       </c>
       <c r="C59" t="n">
         <v>10</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Recau BRINKS EN LINEA</t>
+          <t>Recau BANCO COLPATRIA EN LINEA</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>120358700</v>
+        <v>29018088</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
@@ -1972,21 +1972,21 @@
     <row r="60">
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="n">
-        <v>4300069068</v>
+        <v>4300069204</v>
       </c>
       <c r="C60" t="n">
         <v>20</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>BRINKS EN LINEA-EDATEL</t>
+          <t>BANCO COLPATRIA EN LINEA-EDATEL</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1236620</v>
+        <v>2421184</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
@@ -2008,21 +2008,21 @@
     <row r="61">
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="n">
-        <v>4300069068</v>
+        <v>4300069204</v>
       </c>
       <c r="C61" t="n">
         <v>30</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>BRINKS EN LINEA-TIGO</t>
+          <t>BANCO COLPATRIA EN LINEA-TIGO</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>208231320</v>
+        <v>101132492</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
@@ -2164,21 +2164,21 @@
     <row r="68">
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="n">
-        <v>4300069205</v>
+        <v>4300069234</v>
       </c>
       <c r="C68" t="n">
         <v>10</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Recau RED REDEBAN MULTICOLOR</t>
+          <t xml:space="preserve">Recau SUDAMERIS EN LINEA                      </t>
         </is>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>-10597856</v>
+        <v>535822</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
@@ -2200,21 +2200,21 @@
     <row r="69">
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="n">
-        <v>4300069205</v>
+        <v>4300069234</v>
       </c>
       <c r="C69" t="n">
         <v>20</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RED REDEBAN MULTICOLOR-EDATEL</t>
+          <t>SUDAMERIS EN LINEA                      -EDATEL</t>
         </is>
       </c>
       <c r="E69" t="n">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>141566</v>
+        <v>2155</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
@@ -2236,21 +2236,21 @@
     <row r="70">
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="n">
-        <v>4300069205</v>
+        <v>4300069234</v>
       </c>
       <c r="C70" t="n">
         <v>30</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RED REDEBAN MULTICOLOR-TIGO</t>
+          <t>SUDAMERIS EN LINEA                      -TIGO</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>20516195</v>
+        <v>191057</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
@@ -2392,21 +2392,21 @@
     <row r="77">
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="n">
-        <v>4300068994</v>
+        <v>4300069068</v>
       </c>
       <c r="C77" t="n">
         <v>10</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Recau BANCOLOMBIA CORRESPONSALES</t>
+          <t>Recau BRINKS EN LINEA</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>90561060</v>
+        <v>120358700</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
@@ -2428,21 +2428,21 @@
     <row r="78">
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="n">
-        <v>4300068994</v>
+        <v>4300069068</v>
       </c>
       <c r="C78" t="n">
         <v>20</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>BANCOLOMBIA CORRESPONSALES-EDATEL</t>
+          <t>BRINKS EN LINEA-EDATEL</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>15349296</v>
+        <v>1236620</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
@@ -2464,21 +2464,21 @@
     <row r="79">
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="n">
-        <v>4300068994</v>
+        <v>4300069068</v>
       </c>
       <c r="C79" t="n">
         <v>30</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>BANCOLOMBIA CORRESPONSALES-TIGO</t>
+          <t>BRINKS EN LINEA-TIGO</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>13000764</v>
+        <v>208231320</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
@@ -2537,2058 +2537,6 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>ENTRADA EN ACTIVIDAD</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>En esta columna solo se debe deligenciar CARRITO(CANTIDADES) ó LIMITES(VALOR) dependiendo el tipo de Pedido</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Nro Pedido</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Posicion</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Valor Unitario</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Valor Total</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>CLASE DE EA DE SERVICIOS</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Lugar del Servicio</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Login de red de administrador</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="n">
-        <v>4300069523</v>
-      </c>
-      <c r="C86" t="n">
-        <v>10</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Recau NEQUI</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="n">
-        <v>4300069523</v>
-      </c>
-      <c r="C87" t="n">
-        <v>20</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>NEQUI-EDATEL</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="n">
-        <v>4300069523</v>
-      </c>
-      <c r="C88" t="n">
-        <v>30</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>NEQUI-TIGO</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>1</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ENTRADA EN ACTIVIDAD</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>En esta columna solo se debe deligenciar CARRITO(CANTIDADES) ó LIMITES(VALOR) dependiendo el tipo de Pedido</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Nro Pedido</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Posicion</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Valor Unitario</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Valor Total</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>CLASE DE EA DE SERVICIOS</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Lugar del Servicio</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Login de red de administrador</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="n">
-        <v>4300069204</v>
-      </c>
-      <c r="C95" t="n">
-        <v>10</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Recau BANCO COLPATRIA EN LINEA</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" t="n">
-        <v>29018088</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="n">
-        <v>4300069204</v>
-      </c>
-      <c r="C96" t="n">
-        <v>20</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>BANCO COLPATRIA EN LINEA-EDATEL</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>2421184</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="n">
-        <v>4300069204</v>
-      </c>
-      <c r="C97" t="n">
-        <v>30</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>BANCO COLPATRIA EN LINEA-TIGO</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
-      <c r="F97" t="n">
-        <v>101132492</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ENTRADA EN ACTIVIDAD</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>En esta columna solo se debe deligenciar CARRITO(CANTIDADES) ó LIMITES(VALOR) dependiendo el tipo de Pedido</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Nro Pedido</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Posicion</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Valor Unitario</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Valor Total</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>CLASE DE EA DE SERVICIOS</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Lugar del Servicio</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Login de red de administrador</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="n">
-        <v>4300069066</v>
-      </c>
-      <c r="C104" t="n">
-        <v>10</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recau BBVA EN LINEA                           </t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>20071707</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="n">
-        <v>4300069066</v>
-      </c>
-      <c r="C105" t="n">
-        <v>20</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>BBVA EN LINEA                           -EDATEL</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>730011</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="n">
-        <v>4300069066</v>
-      </c>
-      <c r="C106" t="n">
-        <v>30</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>BBVA EN LINEA                           -TIGO</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>91146779</v>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ENTRADA EN ACTIVIDAD</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>En esta columna solo se debe deligenciar CARRITO(CANTIDADES) ó LIMITES(VALOR) dependiendo el tipo de Pedido</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr"/>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Nro Pedido</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Posicion</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Valor Unitario</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Valor Total</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>CLASE DE EA DE SERVICIOS</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Lugar del Servicio</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Login de red de administrador</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr"/>
-      <c r="B113" t="n">
-        <v>4300067893</v>
-      </c>
-      <c r="C113" t="n">
-        <v>10</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Recau BANCO DE OCCIDENTE</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" t="n">
-        <v>567015</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="n">
-        <v>4300067893</v>
-      </c>
-      <c r="C114" t="n">
-        <v>20</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>BANCO DE OCCIDENTE-EDATEL</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" t="n">
-        <v>6710</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="n">
-        <v>4300067893</v>
-      </c>
-      <c r="C115" t="n">
-        <v>30</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>BANCO DE OCCIDENTE-TIGO</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>56198</v>
-      </c>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr"/>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr"/>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>ENTRADA EN ACTIVIDAD</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>En esta columna solo se debe deligenciar CARRITO(CANTIDADES) ó LIMITES(VALOR) dependiendo el tipo de Pedido</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Nro Pedido</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Posicion</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Valor Unitario</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Valor Total</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>CLASE DE EA DE SERVICIOS</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Lugar del Servicio</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Login de red de administrador</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr"/>
-      <c r="B122" t="n">
-        <v>4300069068</v>
-      </c>
-      <c r="C122" t="n">
-        <v>10</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Recau BRINKS EN LINEA</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>120358700</v>
-      </c>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="n">
-        <v>4300069068</v>
-      </c>
-      <c r="C123" t="n">
-        <v>20</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>BRINKS EN LINEA-EDATEL</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>1</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1236620</v>
-      </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="n">
-        <v>4300069068</v>
-      </c>
-      <c r="C124" t="n">
-        <v>30</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>BRINKS EN LINEA-TIGO</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>208231320</v>
-      </c>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr"/>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr"/>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>ENTRADA EN ACTIVIDAD</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>En esta columna solo se debe deligenciar CARRITO(CANTIDADES) ó LIMITES(VALOR) dependiendo el tipo de Pedido</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr"/>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr"/>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Nro Pedido</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Posicion</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Valor Unitario</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Valor Total</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>CLASE DE EA DE SERVICIOS</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Lugar del Servicio</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Login de red de administrador</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr"/>
-      <c r="B131" t="n">
-        <v>4300069205</v>
-      </c>
-      <c r="C131" t="n">
-        <v>10</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Recau RED REDEBAN MULTICOLOR</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>-10597856</v>
-      </c>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr"/>
-      <c r="B132" t="n">
-        <v>4300069205</v>
-      </c>
-      <c r="C132" t="n">
-        <v>20</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>RED REDEBAN MULTICOLOR-EDATEL</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>141566</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr"/>
-      <c r="B133" t="n">
-        <v>4300069205</v>
-      </c>
-      <c r="C133" t="n">
-        <v>30</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>RED REDEBAN MULTICOLOR-TIGO</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>20516195</v>
-      </c>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr"/>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr"/>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr"/>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr"/>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ENTRADA EN ACTIVIDAD</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>En esta columna solo se debe deligenciar CARRITO(CANTIDADES) ó LIMITES(VALOR) dependiendo el tipo de Pedido</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr"/>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr"/>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Nro Pedido</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Posicion</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Valor Unitario</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Valor Total</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>CLASE DE EA DE SERVICIOS</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Lugar del Servicio</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Login de red de administrador</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr"/>
-      <c r="B140" t="n">
-        <v>4300068994</v>
-      </c>
-      <c r="C140" t="n">
-        <v>10</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Recau BANCOLOMBIA CORRESPONSALES</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>1</v>
-      </c>
-      <c r="F140" t="n">
-        <v>90561060</v>
-      </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr"/>
-      <c r="B141" t="n">
-        <v>4300068994</v>
-      </c>
-      <c r="C141" t="n">
-        <v>20</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>BANCOLOMBIA CORRESPONSALES-EDATEL</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>15349296</v>
-      </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr"/>
-      <c r="B142" t="n">
-        <v>4300068994</v>
-      </c>
-      <c r="C142" t="n">
-        <v>30</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>BANCOLOMBIA CORRESPONSALES-TIGO</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>13000764</v>
-      </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr"/>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr"/>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr"/>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr"/>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ENTRADA EN ACTIVIDAD</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>En esta columna solo se debe deligenciar CARRITO(CANTIDADES) ó LIMITES(VALOR) dependiendo el tipo de Pedido</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr"/>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr"/>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Nro Pedido</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Posicion</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Valor Unitario</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Valor Total</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>CLASE DE EA DE SERVICIOS</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Lugar del Servicio</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Login de red de administrador</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr"/>
-      <c r="B149" t="n">
-        <v>4300069523</v>
-      </c>
-      <c r="C149" t="n">
-        <v>10</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Recau NEQUI</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>1</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr"/>
-      <c r="B150" t="n">
-        <v>4300069523</v>
-      </c>
-      <c r="C150" t="n">
-        <v>20</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>NEQUI-EDATEL</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0</v>
-      </c>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr"/>
-      <c r="B151" t="n">
-        <v>4300069523</v>
-      </c>
-      <c r="C151" t="n">
-        <v>30</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>NEQUI-TIGO</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr"/>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr"/>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr"/>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr"/>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>ENTRADA EN ACTIVIDAD</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>En esta columna solo se debe deligenciar CARRITO(CANTIDADES) ó LIMITES(VALOR) dependiendo el tipo de Pedido</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr"/>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr"/>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Nro Pedido</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Posicion</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Cantidad</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Valor Unitario</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Valor Total</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>CLASE DE EA DE SERVICIOS</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>Lugar del Servicio</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Login de red de administrador</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr"/>
-      <c r="B158" t="n">
-        <v>4300069204</v>
-      </c>
-      <c r="C158" t="n">
-        <v>10</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Recau BANCO COLPATRIA EN LINEA</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>29018088</v>
-      </c>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr"/>
-      <c r="B159" t="n">
-        <v>4300069204</v>
-      </c>
-      <c r="C159" t="n">
-        <v>20</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>BANCO COLPATRIA EN LINEA-EDATEL</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2421184</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr"/>
-      <c r="B160" t="n">
-        <v>4300069204</v>
-      </c>
-      <c r="C160" t="n">
-        <v>30</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>BANCO COLPATRIA EN LINEA-TIGO</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>1</v>
-      </c>
-      <c r="F160" t="n">
-        <v>101132492</v>
-      </c>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>LIMITES(VALOR)</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>MEDELLIN</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>ACOMBARI</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr"/>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr"/>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
